--- a/DneWebSite/upload/dcrEvaluations.xlsx
+++ b/DneWebSite/upload/dcrEvaluations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t xml:space="preserve">提案電廠</t>
   </si>
@@ -41,40 +41,76 @@
     <t xml:space="preserve">承辦人</t>
   </si>
   <si>
+    <t xml:space="preserve">(核發處)送會日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核發處)審覆日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核發處)審查結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核安處)送會日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核安處)審覆日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核安處)審查結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核技處)會辦組別</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核技處)審查結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核技處)彙總日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回覆電廠日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回覆結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">後續DCR需/不需送總處協審</t>
+  </si>
+  <si>
     <t xml:space="preserve">備註</t>
   </si>
   <si>
-    <t xml:space="preserve">(核發處)送會日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核發處)審覆日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核發處)審查結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核安處)送會日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核安處)審覆日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核安處)審查結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核技處)會辦組別</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核技處)審查結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核技處)彙總日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回覆結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回覆電廠日期</t>
+    <t xml:space="preserve">核依廠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCR-K1-HPS4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主變壓器避雷器及附屬計數器可行性評估</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核二改簽字106184號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">會收106-0309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/06/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謝文龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">審查中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
   </si>
   <si>
     <t xml:space="preserve">核二廠</t>
@@ -83,28 +119,7 @@
     <t xml:space="preserve">DCR-K1-XPLS</t>
   </si>
   <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">主變壓器避雷器及附屬計數器可行性評估</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核二改簽字106184號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">會收106-0309</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017/06/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謝文龍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">審查中</t>
   </si>
 </sst>
 </file>
@@ -219,53 +234,159 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
